--- a/global_counting_data.xlsx
+++ b/global_counting_data.xlsx
@@ -28,1516 +28,1516 @@
     <t xml:space="preserve">Value</t>
   </si>
   <si>
-    <t xml:space="preserve">Panama_Plate1_A1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panama_Plate1_A2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panama_Plate1_A3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panama_Plate1_A4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panama_Plate1_B1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panama_Plate1_B2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panama_Plate1_B3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panama_Plate1_B4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panama_Plate1_C1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panama_Plate1_C2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panama_Plate1_C3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panama_Plate1_C4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panama_Plate2_A1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panama_Plate2_A2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panama_Plate2_A3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panama_Plate2_A4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panama_Plate2_B1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panama_Plate2_B2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panama_Plate2_B3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panama_Plate2_B4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panama_Plate2_C1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panama_Plate2_C2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panama_Plate2_C3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panama_Plate2_C4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panama_Plate3_A1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panama_Plate3_A2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panama_Plate3_A3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panama_Plate3_A4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panama_Plate3_B1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panama_Plate3_B2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panama_Plate3_B3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panama_Plate3_B4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panama_Plate3_C1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panama_Plate3_C2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panama_Plate3_C3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panama_Plate3_C4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panama_Plate4_A1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panama_Plate4_A2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panama_Plate4_A3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panama_Plate4_A4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panama_Plate4_B1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panama_Plate4_B2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panama_Plate4_B3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panama_Plate4_B4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panama_Plate4_C1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panama_Plate4_C2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panama_Plate4_C3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panama_Plate4_C4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panama_Plate5_A1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panama_Plate5_A2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panama_Plate5_A3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panama_Plate5_A4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panama_Plate5_B1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panama_Plate5_B2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panama_Plate5_B3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panama_Plate5_B4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panama_Plate5_C1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panama_Plate5_C2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panama_Plate5_C3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panama_Plate5_C4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panama_Plate6_A1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panama_Plate6_A2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panama_Plate6_A3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panama_Plate6_A4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panama_Plate6_B1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panama_Plate6_B2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panama_Plate6_B3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panama_Plate6_B4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panama_Plate6_C1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panama_Plate6_C2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panama_Plate6_C3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panama_Plate6_C4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panama_Plate7_A1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panama_Plate7_A2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panama_Plate7_A3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panama_Plate7_A4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panama_Plate7_B1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panama_Plate7_B2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panama_Plate7_B3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panama_Plate7_B4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panama_Plate7_C1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panama_Plate7_C2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panama_Plate7_C3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panama_Plate7_C4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panama_Plate8_A1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panama_Plate8_A2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panama_Plate8_A3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panama_Plate8_A4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panama_Plate8_B1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panama_Plate8_B2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panama_Plate8_B3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panama_Plate8_B4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panama_Plate8_C1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panama_Plate8_C2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panama_Plate8_C3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panama_Plate8_C4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panama_Plate9_A1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panama_Plate9_A2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panama_Plate9_A3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panama_Plate9_A4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panama_Plate9_B1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panama_Plate9_B2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panama_Plate9_B3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panama_Plate9_B4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panama_Plate9_C1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panama_Plate9_C2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panama_Plate9_C3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panama_Plate9_C4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panama_Plate10_A1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panama_Plate10_A2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panama_Plate10_A3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panama_Plate10_A4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panama_Plate10_B1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panama_Plate10_B2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panama_Plate10_B3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panama_Plate10_B4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panama_Plate10_C1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panama_Plate10_C2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panama_Plate10_C3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panama_Plate10_C4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panama_Plate11_A1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panama_Plate11_A2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panama_Plate11_A3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panama_Plate11_A4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panama_Plate11_B1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panama_Plate11_B2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panama_Plate11_B3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panama_Plate11_B4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panama_Plate11_C1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panama_Plate11_C2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panama_Plate11_C3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panama_Plate11_C4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panama_Plate12_A1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panama_Plate12_A2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panama_Plate12_A3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panama_Plate12_A4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panama_Plate12_B1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panama_Plate12_B2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panama_Plate12_B3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panama_Plate12_B4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panama_Plate12_C1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panama_Plate12_C2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panama_Plate12_C3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Panama_Plate12_C4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate1_A1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate1_A2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate1_A3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate1_A4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate1_B1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate1_B2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate1_B3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate1_B4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate1_C1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate1_C2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate1_C3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate1_C4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate2_A1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate2_A2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate2_A3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate2_A4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate2_B1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate2_B2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate2_B3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate2_B4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate2_C1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate2_C2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate2_C3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate2_C4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate3_A1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate3_A2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate3_A3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate3_A4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate3_B1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate3_B2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate3_B3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate3_B4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate3_C1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate3_C2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate3_C3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate3_C4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate4_A1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate4_A2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate4_A3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate4_A4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate4_B1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate4_B2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate4_B3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate4_B4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate4_C1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate4_C2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate4_C3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate4_C4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate5_A1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate5_A2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate5_A3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate5_A4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate5_B1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate5_B2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate5_B3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate5_B4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate5_C1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate5_C2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate5_C3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate5_C4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate6_A1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate6_A2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate6_A3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate6_A4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate6_B1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate6_B2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate6_B3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate6_B4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate6_C1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate6_C2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate6_C3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate6_C4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate7_A1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate7_A2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate7_A3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate7_A4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate7_B1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate7_B2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate7_B3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate7_B4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate7_C1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate7_C2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate7_C3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate7_C4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate8_A1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate8_A2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate8_A3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate8_A4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate8_B1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate8_B2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate8_B3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate8_B4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate8_C1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate8_C2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate8_C3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate8_C4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate9_A1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate9_A2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate9_A3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate9_A4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate9_B1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate9_B2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate9_B3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate9_B4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate9_C1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate9_C2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate9_C3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate9_C4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate10_A1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate10_A2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate10_A3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate10_A4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate10_B1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate10_B2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate10_B3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate10_B4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate10_C1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate10_C2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate10_C3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate10_C4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate11_A1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate11_A2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate11_A3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate11_A4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate11_B1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate11_B2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate11_B3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate11_B4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate11_C1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate11_C2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate11_C3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate11_C4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate12_A1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate12_A2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate12_A3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate12_A4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate12_B1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate12_B2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate12_B3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate12_B4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate12_C1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate12_C2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate12_C3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate12_C4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate13_A1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate13_A2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate13_A3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate13_A4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate13_B1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate13_B2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate13_B3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate13_B4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate13_C1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate13_C2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate13_C3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate13_C4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate14_A1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate14_A2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate14_A3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate14_A4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate14_B1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate14_B2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate14_B3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate14_B4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate14_C1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate14_C2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate14_C3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate14_C4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate15_A1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate15_A2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate15_A3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate15_A4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate15_B1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate15_B2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate15_B3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate15_B4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate15_C1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate15_C2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate15_C3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate15_C4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate16_A1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate16_A2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate16_A3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate16_A4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate16_B1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate16_B2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate16_B3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate16_B4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate16_C1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate16_C2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate16_C3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate16_C4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate17_A1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate17_A2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate17_A3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate17_A4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate17_B1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate17_B2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate17_B3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate17_B4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate17_C1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate17_C2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate17_C3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate17_C4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate18_A1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate18_A2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate18_A3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate18_A4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate18_B1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate18_B2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate18_B3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate18_B4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate18_C1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate18_C2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate18_C3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate18_C4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate19_A1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate19_A2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate19_A3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate19_A4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate19_B1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate19_B2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate19_B3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate19_B4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate19_C1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate19_C2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate19_C3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate19_C4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate20_A1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate20_A2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate20_A3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate20_A4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate20_B1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate20_B2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate20_B3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate20_B4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate20_C1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate20_C2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate20_C3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate20_C4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate21_A1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate21_A2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate21_A3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate21_A4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate21_B1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate21_B2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate21_B3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate21_B4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate21_C1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate21_C2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate21_C3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate21_C4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate22_A1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate22_A2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate22_A3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate22_A4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate22_B1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate22_B2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate22_B3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate22_B4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate22_C1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate22_C2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate22_C3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate22_C4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate23_A1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate23_A2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate23_A3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate23_A4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate23_B1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate23_B2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate23_B3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate23_B4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate23_C1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate23_C2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate23_C3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PR8_Plate23_C4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IBV_Plate1_A1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IBV_Plate1_A2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IBV_Plate1_A3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IBV_Plate1_A4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IBV_Plate1_B1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IBV_Plate1_B2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IBV_Plate1_B3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IBV_Plate1_B4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IBV_Plate1_C1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IBV_Plate1_C2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IBV_Plate1_C3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IBV_Plate1_C4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IBV_Plate2_A1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IBV_Plate2_A2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IBV_Plate2_A3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IBV_Plate2_A4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IBV_Plate2_B1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IBV_Plate2_B2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IBV_Plate2_B3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IBV_Plate2_B4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IBV_Plate2_C1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IBV_Plate2_C2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IBV_Plate2_C3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IBV_Plate2_C4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IBV_Plate3_A1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IBV_Plate3_A2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IBV_Plate3_A3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IBV_Plate3_A4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IBV_Plate3_B1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IBV_Plate3_B2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IBV_Plate3_B3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IBV_Plate3_B4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IBV_Plate3_C1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IBV_Plate3_C2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IBV_Plate3_C3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IBV_Plate3_C4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IBV_Plate4_A1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IBV_Plate4_A2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IBV_Plate4_A3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IBV_Plate4_A4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IBV_Plate4_B1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IBV_Plate4_B2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IBV_Plate4_B3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IBV_Plate4_B4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IBV_Plate4_C1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IBV_Plate4_C2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IBV_Plate4_C3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IBV_Plate4_C4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IBV_Plate5_A1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IBV_Plate5_A2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IBV_Plate5_A3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IBV_Plate5_A4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IBV_Plate5_B1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IBV_Plate5_B2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IBV_Plate5_B3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IBV_Plate5_B4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IBV_Plate5_C1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IBV_Plate5_C2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IBV_Plate5_C3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IBV_Plate5_C4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IBV_Plate6_A1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IBV_Plate6_A2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IBV_Plate6_A3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IBV_Plate6_A4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IBV_Plate6_B1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IBV_Plate6_B2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IBV_Plate6_B3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IBV_Plate6_B4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IBV_Plate6_C1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IBV_Plate6_C2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IBV_Plate6_C3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IBV_Plate6_C4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IBV_Plate7_A1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IBV_Plate7_A2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IBV_Plate7_A3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IBV_Plate7_A4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IBV_Plate7_B1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IBV_Plate7_B2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IBV_Plate7_B3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IBV_Plate7_B4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IBV_Plate7_C1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IBV_Plate7_C2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IBV_Plate7_C3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IBV_Plate7_C4</t>
+    <t xml:space="preserve">Panama_plate1_A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama_plate1_A2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama_plate1_A3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama_plate1_A4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama_plate1_B1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama_plate1_B2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama_plate1_B3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama_plate1_B4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama_plate1_C1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama_plate1_C2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama_plate1_C3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama_plate1_C4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama_plate2_A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama_plate2_A2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama_plate2_A3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama_plate2_A4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama_plate2_B1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama_plate2_B2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama_plate2_B3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama_plate2_B4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama_plate2_C1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama_plate2_C2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama_plate2_C3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama_plate2_C4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama_plate3_A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama_plate3_A2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama_plate3_A3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama_plate3_A4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama_plate3_B1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama_plate3_B2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama_plate3_B3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama_plate3_B4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama_plate3_C1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama_plate3_C2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama_plate3_C3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama_plate3_C4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama_plate4_A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama_plate4_A2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama_plate4_A3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama_plate4_A4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama_plate4_B1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama_plate4_B2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama_plate4_B3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama_plate4_B4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama_plate4_C1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama_plate4_C2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama_plate4_C3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama_plate4_C4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama_plate5_A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama_plate5_A2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama_plate5_A3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama_plate5_A4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama_plate5_B1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama_plate5_B2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama_plate5_B3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama_plate5_B4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama_plate5_C1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama_plate5_C2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama_plate5_C3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama_plate5_C4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama_plate6_A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama_plate6_A2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama_plate6_A3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama_plate6_A4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama_plate6_B1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama_plate6_B2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama_plate6_B3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama_plate6_B4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama_plate6_C1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama_plate6_C2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama_plate6_C3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama_plate6_C4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama_plate7_A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama_plate7_A2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama_plate7_A3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama_plate7_A4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama_plate7_B1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama_plate7_B2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama_plate7_B3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama_plate7_B4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama_plate7_C1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama_plate7_C2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama_plate7_C3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama_plate7_C4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama_plate8_A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama_plate8_A2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama_plate8_A3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama_plate8_A4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama_plate8_B1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama_plate8_B2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama_plate8_B3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama_plate8_B4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama_plate8_C1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama_plate8_C2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama_plate8_C3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama_plate8_C4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama_plate9_A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama_plate9_A2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama_plate9_A3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama_plate9_A4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama_plate9_B1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama_plate9_B2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama_plate9_B3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama_plate9_B4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama_plate9_C1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama_plate9_C2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama_plate9_C3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama_plate9_C4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama_plate10_A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama_plate10_A2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama_plate10_A3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama_plate10_A4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama_plate10_B1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama_plate10_B2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama_plate10_B3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama_plate10_B4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama_plate10_C1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama_plate10_C2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama_plate10_C3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama_plate10_C4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama_plate11_A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama_plate11_A2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama_plate11_A3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama_plate11_A4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama_plate11_B1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama_plate11_B2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama_plate11_B3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama_plate11_B4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama_plate11_C1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama_plate11_C2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama_plate11_C3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama_plate11_C4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama_plate12_A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama_plate12_A2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama_plate12_A3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama_plate12_A4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama_plate12_B1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama_plate12_B2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama_plate12_B3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama_plate12_B4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama_plate12_C1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama_plate12_C2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama_plate12_C3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama_plate12_C4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate1_A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate1_A2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate1_A3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate1_A4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate1_B1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate1_B2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate1_B3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate1_B4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate1_C1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate1_C2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate1_C3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate1_C4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate2_A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate2_A2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate2_A3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate2_A4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate2_B1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate2_B2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate2_B3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate2_B4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate2_C1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate2_C2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate2_C3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate2_C4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate3_A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate3_A2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate3_A3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate3_A4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate3_B1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate3_B2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate3_B3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate3_B4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate3_C1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate3_C2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate3_C3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate3_C4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate4_A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate4_A2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate4_A3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate4_A4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate4_B1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate4_B2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate4_B3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate4_B4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate4_C1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate4_C2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate4_C3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate4_C4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate5_A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate5_A2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate5_A3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate5_A4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate5_B1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate5_B2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate5_B3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate5_B4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate5_C1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate5_C2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate5_C3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate5_C4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate6_A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate6_A2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate6_A3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate6_A4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate6_B1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate6_B2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate6_B3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate6_B4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate6_C1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate6_C2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate6_C3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate6_C4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate7_A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate7_A2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate7_A3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate7_A4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate7_B1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate7_B2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate7_B3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate7_B4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate7_C1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate7_C2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate7_C3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate7_C4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate8_A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate8_A2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate8_A3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate8_A4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate8_B1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate8_B2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate8_B3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate8_B4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate8_C1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate8_C2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate8_C3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate8_C4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate9_A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate9_A2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate9_A3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate9_A4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate9_B1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate9_B2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate9_B3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate9_B4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate9_C1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate9_C2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate9_C3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate9_C4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate10_A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate10_A2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate10_A3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate10_A4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate10_B1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate10_B2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate10_B3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate10_B4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate10_C1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate10_C2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate10_C3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate10_C4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate11_A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate11_A2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate11_A3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate11_A4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate11_B1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate11_B2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate11_B3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate11_B4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate11_C1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate11_C2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate11_C3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate11_C4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate12_A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate12_A2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate12_A3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate12_A4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate12_B1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate12_B2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate12_B3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate12_B4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate12_C1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate12_C2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate12_C3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate12_C4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate13_A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate13_A2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate13_A3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate13_A4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate13_B1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate13_B2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate13_B3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate13_B4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate13_C1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate13_C2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate13_C3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate13_C4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate14_A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate14_A2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate14_A3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate14_A4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate14_B1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate14_B2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate14_B3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate14_B4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate14_C1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate14_C2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate14_C3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate14_C4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate15_A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate15_A2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate15_A3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate15_A4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate15_B1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate15_B2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate15_B3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate15_B4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate15_C1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate15_C2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate15_C3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate15_C4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate16_A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate16_A2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate16_A3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate16_A4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate16_B1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate16_B2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate16_B3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate16_B4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate16_C1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate16_C2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate16_C3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate16_C4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate17_A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate17_A2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate17_A3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate17_A4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate17_B1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate17_B2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate17_B3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate17_B4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate17_C1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate17_C2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate17_C3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate17_C4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate18_A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate18_A2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate18_A3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate18_A4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate18_B1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate18_B2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate18_B3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate18_B4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate18_C1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate18_C2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate18_C3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate18_C4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate19_A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate19_A2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate19_A3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate19_A4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate19_B1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate19_B2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate19_B3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate19_B4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate19_C1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate19_C2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate19_C3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate19_C4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate20_A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate20_A2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate20_A3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate20_A4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate20_B1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate20_B2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate20_B3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate20_B4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate20_C1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate20_C2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate20_C3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate20_C4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate21_A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate21_A2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate21_A3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate21_A4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate21_B1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate21_B2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate21_B3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate21_B4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate21_C1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate21_C2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate21_C3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate21_C4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate22_A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate22_A2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate22_A3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate22_A4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate22_B1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate22_B2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate22_B3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate22_B4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate22_C1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate22_C2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate22_C3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate22_C4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate23_A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate23_A2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate23_A3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate23_A4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate23_B1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate23_B2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate23_B3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate23_B4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate23_C1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate23_C2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate23_C3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PR8_plate23_C4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IBV_plate1_A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IBV_plate1_A2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IBV_plate1_A3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IBV_plate1_A4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IBV_plate1_B1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IBV_plate1_B2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IBV_plate1_B3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IBV_plate1_B4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IBV_plate1_C1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IBV_plate1_C2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IBV_plate1_C3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IBV_plate1_C4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IBV_plate2_A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IBV_plate2_A2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IBV_plate2_A3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IBV_plate2_A4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IBV_plate2_B1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IBV_plate2_B2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IBV_plate2_B3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IBV_plate2_B4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IBV_plate2_C1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IBV_plate2_C2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IBV_plate2_C3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IBV_plate2_C4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IBV_plate3_A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IBV_plate3_A2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IBV_plate3_A3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IBV_plate3_A4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IBV_plate3_B1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IBV_plate3_B2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IBV_plate3_B3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IBV_plate3_B4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IBV_plate3_C1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IBV_plate3_C2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IBV_plate3_C3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IBV_plate3_C4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IBV_plate4_A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IBV_plate4_A2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IBV_plate4_A3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IBV_plate4_A4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IBV_plate4_B1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IBV_plate4_B2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IBV_plate4_B3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IBV_plate4_B4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IBV_plate4_C1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IBV_plate4_C2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IBV_plate4_C3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IBV_plate4_C4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IBV_plate5_A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IBV_plate5_A2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IBV_plate5_A3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IBV_plate5_A4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IBV_plate5_B1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IBV_plate5_B2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IBV_plate5_B3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IBV_plate5_B4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IBV_plate5_C1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IBV_plate5_C2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IBV_plate5_C3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IBV_plate5_C4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IBV_plate6_A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IBV_plate6_A2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IBV_plate6_A3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IBV_plate6_A4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IBV_plate6_B1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IBV_plate6_B2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IBV_plate6_B3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IBV_plate6_B4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IBV_plate6_C1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IBV_plate6_C2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IBV_plate6_C3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IBV_plate6_C4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IBV_plate7_A1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IBV_plate7_A2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IBV_plate7_A3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IBV_plate7_A4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IBV_plate7_B1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IBV_plate7_B2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IBV_plate7_B3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IBV_plate7_B4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IBV_plate7_C1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IBV_plate7_C2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IBV_plate7_C3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IBV_plate7_C4</t>
   </si>
 </sst>
 </file>
@@ -1655,13 +1655,13 @@
   </sheetPr>
   <dimension ref="A1:B505"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A153" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="34.8"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
